--- a/ground_truth.xlsx
+++ b/ground_truth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SWING" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="321">
   <si>
     <t>API</t>
   </si>
@@ -66,69 +66,6 @@
     <t xml:space="preserve">$RECEIVER$.getLength() &gt; $ARG$1 </t>
   </si>
   <si>
-    <t>javax.swing.text.JTextComponent.getDocument(0)</t>
-  </si>
-  <si>
-    <t>javax.swing.text.Document.getText(2)</t>
-  </si>
-  <si>
-    <t>javax.swing.text.Document.insertString(3)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.DefaultTableModel.getValueAt(2)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.TableModel.getValueAt(2)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.DefaultTableModel.removeRow(1)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.DefaultTableModel.setValueAt(3)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.JTableHeader.columnAtPoint(1)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.JTableHeader.getColumnModel(0)</t>
-  </si>
-  <si>
-    <t>javax.swing.text.StyleConstants.setBold(2)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getLocalName(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeValue(2)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.next(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeValue(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.parsers.DocumentBuilder.parse(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.require(3)</t>
-  </si>
-  <si>
-    <t>javax.xml.transform.sax.SAXSource.sourceToInputSource(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeLocalName(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.asStartElement(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getText(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getNamespacePrefix(1)</t>
-  </si>
-  <si>
     <t>$RECEIVER$.isStartElement()</t>
   </si>
   <si>
@@ -216,120 +153,6 @@
     <t>getEventType() == XMLStreamConstants.CDATA</t>
   </si>
   <si>
-    <t>javax.xml.stream.XMLStreamReader.getNamespaceURI(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getName(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeNamespace(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.bind.Unmarshaller.unmarshal(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.asEndElement(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getElementText(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributePrefix(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getLocation(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeCount(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeName(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.asCharacters(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.isEndElement(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getEventType(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeType(1)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.isStartElement(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.parsers.SAXParser.parse(2)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getNamespaceURI(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.bind.Unmarshaller.unmarshal(2)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.nextTag(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getNamespaceCount(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.hasNext(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.getEventType(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getPIData(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getPITarget(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getPrefix(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.isEndElement(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.getLocation(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.transform.Transformer.transform(2)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.close(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getTextCharacters(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.isStartElement(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getTextStart(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getTextLength(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getNamespaceContext(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.isCharacters(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.events.XMLEvent.isCharacters(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.getEncoding(0)</t>
-  </si>
-  <si>
-    <t>javax.xml.xquery.XQPreparedExpression.bindObject(3)</t>
-  </si>
-  <si>
     <t>!$RECEIVER$.isValidThread()</t>
   </si>
   <si>
@@ -345,66 +168,6 @@
     <t>$RECEIVER$.getItemCount() &gt; $ARG$0</t>
   </si>
   <si>
-    <t>org.eclipse.swt.widgets.Composite.$new$(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Label.$new$(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Button.$new$(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Label.setText(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Text.$new$(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Button.setText(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Text.setText(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Button.setEnabled(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Group.$new$(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Button.setSelection(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Group.setText(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Combo.select(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Shell.setText(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Combo.add(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Shell.setSize(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.TableColumn.setWidth(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Combo.getItem(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Composite.computeSize(2)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Table.getItem(1)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.TableItem.setText(2)</t>
-  </si>
-  <si>
     <t>$RECEIVER$.numAttributes() &gt; $ARG$0</t>
   </si>
   <si>
@@ -447,9 +210,6 @@
     <t>$RECEIVER$.getDimension() &gt; $ARG$0</t>
   </si>
   <si>
-    <t>org.apache.commons.math.MathRuntimeException.createIllegalArgumentException(3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">$ARG$0 != Integer.MIN_VALUE &amp;&amp; $ARG$1 != 0 </t>
   </si>
   <si>
@@ -462,9 +222,6 @@
     <t>$ARG$2 != null</t>
   </si>
   <si>
-    <t>$ARG$6 != null</t>
-  </si>
-  <si>
     <t>$ARG$4 != null</t>
   </si>
   <si>
@@ -489,12 +246,6 @@
     <t>$ARG$5 != null</t>
   </si>
   <si>
-    <t>$ARG$4 &lt;= 0</t>
-  </si>
-  <si>
-    <t>$ARG$4 &lt; 1</t>
-  </si>
-  <si>
     <t>!$ARG$3.isEmpty()</t>
   </si>
   <si>
@@ -507,9 +258,6 @@
     <t>$ARG$2 &lt; $RECEIVER$.getItemCount()</t>
   </si>
   <si>
-    <t>$ARG$4 != 0.0</t>
-  </si>
-  <si>
     <t>$ARG$3 != null</t>
   </si>
   <si>
@@ -528,351 +276,6 @@
     <t>$ARG$1 &gt; 0</t>
   </si>
   <si>
-    <t>org.apache.commons.math.linear.RealMatrix.getEntry(2)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math.MathRuntimeException.createArithmeticException(3)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math.linear.RealMatrix.setEntry(3)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math3.linear.FieldMatrix.getEntry(2)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math.util.MathUtils.gcd(2)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math3.linear.FieldVector.getEntry(1)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math3.util.ArithmeticUtils.gcd(2)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.instance(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.attribute(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instance.value(1)</t>
-  </si>
-  <si>
-    <t>weka.core.FastVector.elementAt(1)</t>
-  </si>
-  <si>
-    <t>weka.core.FastVector.addElement(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Attribute.value(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.add(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.setClassIndex(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instance.isMissing(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.numInstances(0)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.numAttributes(0)</t>
-  </si>
-  <si>
-    <t>weka.core.Attribute.numValues(0)</t>
-  </si>
-  <si>
-    <t>weka.core.Instance.setValue(2)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.classAttribute(0)</t>
-  </si>
-  <si>
-    <t>weka.core.Instance.valueSparse(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Range.isInRange(1)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.insertAttributeAt(2)</t>
-  </si>
-  <si>
-    <t>weka.core.Attribute.indexOfValue(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setRenderer(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Plot.setNotify(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Plot.isNotify(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.indexOf(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabelOffset(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabelTextAnchor(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getPaint(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabelFont(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getOutlinePaint(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabelPaint(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabel(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabelAnchor(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getStroke(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getLabelOffsetType(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Marker.getOutlineStroke(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.IntervalMarker.getGradientPaintTransformer(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PlotRenderingInfo.getSubplotInfo(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Crosshair.removePropertyChangeListener(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.getDomainAxisIndex(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.getRangeAxisIndex(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Plot.setBackgroundPaint(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Pannable.panDomainAxes(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairPoint(7)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairX(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CrosshairState.updateCrosshairPoint(7)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Pannable.panRangeAxes(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Plot.setDrawingSupplier(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.valueToJava2D(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.AxisSpace.shrink(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryMiddle(4)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.java2DToValue(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.reserveSpace(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.isInverted(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategorySeriesMiddle(6)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategorySeriesMiddle(7)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryStart(4)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryEnd(4)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.AxisSpace.reserved(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryJava2DCoordinate(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ColorBar.reserveSpace(6)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.StandardEntityCollection.add(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.StandardEntityCollection.addAll(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.EntityCollection.addAll(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.EntityCollection.getEntity(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.XYSeriesLabelGenerator.generateLabel(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.XYToolTipGenerator.generateToolTip(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.XYItemLabelGenerator.generateLabel(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.PieSectionLabelGenerator.generateSectionLabel(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.CategoryToolTipGenerator.generateToolTip(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.ItemLabelPosition.getItemLabelAnchor(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.PieToolTipGenerator.generateToolTip(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.ItemLabelPosition.getTextAnchor(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.ItemLabelPosition.getRotationAnchor(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.ItemLabelPosition.getAngle(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.CategorySeriesLabelGenerator.generateLabel(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.CategoryItemLabelGenerator.generateLabel(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeLine(7)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.AbstractCategoryItemRenderer.drawRangeLine(7)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeGridline(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findRangeBounds(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeMarker(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawDomainMarker(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.getLegendItem(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.isSeriesVisibleInLegend(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findDomainBounds(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.isSeriesVisible(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawOutline(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawDomainMarker(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.findRangeBounds(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.initialise(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawItem(10)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.PolarItemRenderer.getLegendItem(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawBackground(3)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeMarker(5)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setRangeGridlinePaint(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CombinedDomainXYPlot.add(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setDomainAxis(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setOrientation(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setRangeGridlinePaint(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setOrientation(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setDataset(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setDomainGridlinePaint(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setRenderer(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setDomainGridlinePaint(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setLabelGenerator(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setToolTipGenerator(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setSectionPaint(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setURLGenerator(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.addAnnotation(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.title.TextTitle.setText(1)</t>
-  </si>
-  <si>
     <t>$RECEIVER$.getSeriesCount() &gt; $ARG$0</t>
   </si>
   <si>
@@ -888,131 +291,710 @@
     <t>!$ARG$0.getAllowDuplicateValues()</t>
   </si>
   <si>
-    <t>org.jfree.data.xy.XYSeries.add(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getItemCount(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getSeriesCount(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getSeriesKey(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getEndXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getStartXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.addChangeListener(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getStartYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getEndYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.OHLCDataset.getLowValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.OHLCDataset.getHighValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.TableXYDataset.getYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYZDataset.getZValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getDomainOrder(0)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.OHLCDataset.getXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYSeriesCollection.getXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYZDataset.getItemCount(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYSeriesCollection.getItemCount(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYSeriesCollection.getY(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYSeriesCollection.getSeriesKey(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.OHLCDataset.getVolumeValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.OHLCDataset.getItemCount(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.VectorXYDataset.getVectorXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.VectorXYDataset.getYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYDataset.getY(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.IntervalXYDataset.getItemCount(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.VectorXYDataset.getXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.VectorXYDataset.getVectorYValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYZDataset.getXValue(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYSeriesCollection.addSeries(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.DefaultTableXYDataset.addSeries(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.DefaultTableXYDataset.equals(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.MatrixSeriesCollection.addSeries(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.time.DateRange.$new$(2)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.time.DateRange.$new$(1)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.TableXYDataset.getSeriesCount(0)</t>
+    <t>javax.swing.text.Document.getText(int, int)</t>
+  </si>
+  <si>
+    <t>javax.swing.text.Document.insertString(int, String, AttributeSet)</t>
+  </si>
+  <si>
+    <t>javax.swing.text.JTextComponent.getDocument()</t>
+  </si>
+  <si>
+    <t>javax.swing.table.DefaultTableModel.getValueAt(int, int)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.TableModel.getValueAt(int, int)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.DefaultTableModel.removeRow(int)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.DefaultTableModel.setValueAt(Object, int, int)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.JTableHeader.columnAtPoint(Point)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.JTableHeader.getColumnModel()</t>
+  </si>
+  <si>
+    <t>javax.swing.text.StyleConstants.setBold(MutableAttributeSet, boolean)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getLocalName()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeValue(String, String)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.next()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeValue(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.parsers.DocumentBuilder.parse(String)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.require(int, String, String)</t>
+  </si>
+  <si>
+    <t>javax.xml.transform.sax.SAXSource.sourceToInputSource(Source)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeLocalName(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.asStartElement()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getText()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getNamespacePrefix(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getNamespaceURI(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getName()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeNamespace(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.bind.Unmarshaller.unmarshal(XMLStreamReader)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.asEndElement()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getElementText()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributePrefix(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getLocation()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeCount()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeName(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.asCharacters()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.isEndElement()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getEventType()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeType(int)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.isStartElement()</t>
+  </si>
+  <si>
+    <t>javax.xml.parsers.SAXParser.parse(InputStream, DefaultHandler)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getNamespaceURI()</t>
+  </si>
+  <si>
+    <t>javax.xml.bind.Unmarshaller.unmarshal(XMLEventReader, Class)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.nextTag()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getNamespaceCount()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.hasNext()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.getEventType()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getPIData()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getPITarget()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getPrefix()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.isEndElement()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.getLocation()</t>
+  </si>
+  <si>
+    <t>javax.xml.transform.Transformer.transform(Source, Result)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.close()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getTextCharacters()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.isStartElement()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getTextStart()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getTextLength()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getNamespaceContext()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.isCharacters()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.events.XMLEvent.isCharacters()</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getEncoding()</t>
+  </si>
+  <si>
+    <t>javax.xml.xquery.XQPreparedExpression.bindObject(Qname, Object, XQItemType)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Composite.$new$(Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Composite.computeSize(int, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Label.$new$(Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Label.setText(String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Button.$new$(Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Button.setText(String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Button.setEnabled(boolean)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Button.setSelection(boolean)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Text.$new$(Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Text.setText(String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Group.$new$(Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Group.setText(String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Combo.select(int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Combo.add(String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Combo.getItem(int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Shell.setText(String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Shell.setSize(int, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.TableColumn.setWidth(int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Table.getItem(int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.TableItem.setText(int, String)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.instance(Instances)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.attribute(int)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.add(Instance)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.setClassIndex(int)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.numInstances()</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.numAttributes()</t>
+  </si>
+  <si>
+    <t>weka.core.Attribute.numValues()</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.classAttribute()</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.insertAttributeAt(Attribute, int)</t>
+  </si>
+  <si>
+    <t>weka.core.Instance.value(int)</t>
+  </si>
+  <si>
+    <t>weka.core.Instance.isMissing(int)</t>
+  </si>
+  <si>
+    <t>weka.core.Instance.setValue(int, String)</t>
+  </si>
+  <si>
+    <t>weka.core.Instance.valueSparse(int)</t>
+  </si>
+  <si>
+    <t>weka.core.FastVector.elementAt(int)</t>
+  </si>
+  <si>
+    <t>weka.core.FastVector.addElement(Object)</t>
+  </si>
+  <si>
+    <t>weka.core.Attribute.value(int)</t>
+  </si>
+  <si>
+    <t>weka.core.Attribute.indexOfValue(String)</t>
+  </si>
+  <si>
+    <t>weka.core.Range.isInRange(int)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math.MathRuntimeException.createIllegalArgumentException(Localizable, Object...)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math.MathRuntimeException.createArithmeticException(Localizable, Object...)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math.linear.RealMatrix.getEntry(int, int)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math.linear.RealMatrix.setEntry(int, int, double)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math3.linear.FieldMatrix.getEntry(int, int)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math3.linear.FieldVector.getEntry(int)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math.util.MathUtils.gcd(int, int)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math3.util.ArithmeticUtils.gcd(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setRenderer(int, XYItemRenderer)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Plot.isNotify()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabelOffset()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabelTextAnchor()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getPaint()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabelFont()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getOutlinePaint()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabelPaint()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabel()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabelAnchor()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getStroke()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getLabelOffsetType()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Marker.getOutlineStroke()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.IntervalMarker.getGradientPaintTransformer()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.getDomainAxisIndex(ValueAxis)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.getRangeAxisIndex(ValueAxis)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setOrientation(PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setRangeGridlinePaint(Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setDataset(int, XYDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setDomainGridlinePaint(Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.addAnnotation(XYAnnotation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.getIndexOf(CategoryItemRenderer)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setDomainAxis(CategoryAxis)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setOrientation(PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setRangeGridlinePaint(Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setRenderer(CategoryItemRenderer)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setDomainGridlinePaint(Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PlotRenderingInfo.getSubplotInfo(PlotRenderingInfo)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Plot.setNotify(boolean)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Crosshair.removePropertyChangeListener(PropertyChangeListener)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Plot.setBackgroundPaint(Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Pannable.panDomainAxes(double, PlotRenderInfo, Point2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairPoint(Comparable, Comparable, double, int, double, double, PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CrosshairState.updateCrosshairPoint(Comparable, Comparable, double, int, double, double, PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairX(Comparable, Comparable, int, double, PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Pannable.panRangeAxes(double, PlotRenderingInfo, Point2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Plot.setDrawingSupplier(DrawingSupplier)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CombinedDomainXYPlot.add(XYPlot, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setLabelGenerator(PieSectionLabelGenerator)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setToolTipGenerator(PieToolTipGenerator)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setSectionPaint(Comparable, Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setURLGenerator(PieURLGenerator)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.valueToJava2D(double, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.java2DToValue(double, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.reserveSpace(Graphics2D, Plot, Rectangle2D, RectangleEdge, AxisSpace)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.isInverted()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.AxisSpace.shrink(Rectangle2D, Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.AxisSpace.reserved(Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryMiddle(int, int, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryStart(int, int, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryEnd(int, int, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryJava2DCoordinate(CategoryAnchor, int, int, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategorySeriesMiddle(Comparable, Comparable, CategoryDataset, double, Rectangle2D, RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ColorBar.reserveSpace(Graphics2D, Plot, Recatngle2D, Rectangle2D, RectangleEdge, AxisSpace)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.StandardEntityCollection.add(ChartEntity)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.StandardEntityCollection.addAll(EntityCollection)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.EntityCollection.addAll(EntityCollection)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.EntityCollection.getEntity(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.XYSeriesLabelGenerator.generateLabel(XYDataset, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.XYToolTipGenerator.generateToolTip(XYDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.XYItemLabelGenerator.generateLabel(XYDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.PieSectionLabelGenerator.generateSectionLabel(PieDataset, Comparable)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.CategoryToolTipGenerator.generateToolTip(CategoryDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.ItemLabelPosition.getItemLabelAnchor()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.ItemLabelPosition.getTextAnchor()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.ItemLabelPosition.getRotationAnchor()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.ItemLabelPosition.getAngle()</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.PieToolTipGenerator.generateToolTip(PieDataset, Comparable)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.CategorySeriesLabelGenerator.generateLabel(CategoryDataset, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.CategoryItemLabelGenerator.generateLabel(CategoryDatset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeLine(Graphics2D, XYPlot, ValueAxis, Ractangle2D, double, Paint, Stroke)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findRangeBounds(XYDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeMarker(Graphics2D, XYPlot, ValueAxis, Marker, Ractangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawDomainMarker(Graphics2D, XYPlot, ValueAxis, Marker, Ractangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.getLegendItem(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.isSeriesVisibleInLegend(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findDomainBounds(XYDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.isSeriesVisible(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeGridline(GraphicsPlot, CategoryPlot, ValueAxis, Rectangle2D, double)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawDomainMarker(Graphics2D, CategoryPlot, CategoryAxis, CategoryMarker, Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawOutline(Graphics2D, CategoryPlot, Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.findRangeBounds(CategoryDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.initialise(Graphics2D, Rectangle2D, CategoryPlot, int, PlotRenderingInfo)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawItem(Graphics2D, CategoryItemRendererState, Rectangle2D, CategoryPlot, CategoryAxis, ValueAxis, CategoryDataset, int, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawBackground(Graphics2D, CategoryPlot, Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeMarker(Graphics2D, CategoryPlot, ValueAxis, Marker, Ractangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.PolarItemRenderer.getLegendItem(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.title.TextTitle.setText(String)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeries.add(Comparable, Boolean)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getItemCount(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getSeriesCount()</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getSeriesKey(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getY(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.addChangeListener(DatasetChangeListener)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getEndXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getStartXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getStartYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getEndYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.IntervalXYDataset.getItemCount(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.OHLCDataset.getLowValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.OHLCDataset.getHighValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.OHLCDataset.getXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.OHLCDataset.getVolumeValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.OHLCDataset.getItemCount(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.TableXYDataset.getYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.TableXYDataset.getSeriesCount()</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYZDataset.getZValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYZDataset.getItemCount(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYZDataset.getXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.getDomainOrder()</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeriesCollection.getXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeriesCollection.getItemCount(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeriesCollection.getY(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeriesCollection.getSeriesKey(int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeriesCollection.addSeries(XYSeries)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.VectorXYDataset.getVectorXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.VectorXYDataset.getYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.VectorXYDataset.getXValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.VectorXYDataset.getVectorYValue(int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.DefaultTableXYDataset.addSeries(XYseries)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.DefaultTableXYDataset.equals(Object)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.MatrixSeriesCollection.addSeries(MatrixSeries)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.time.DateRange.$new$(Range)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.time.DateRange.$new$(Date, Date)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,10 +1075,6 @@
       <color rgb="FF3366FF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1285,7 +1263,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="475">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1491,8 +1469,278 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1512,7 +1760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1531,15 +1778,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1556,13 +1794,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="475">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1665,6 +1914,141 @@
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1767,6 +2151,141 @@
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2099,31 +2618,31 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>2</v>
@@ -2142,7 +2661,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>4</v>
@@ -2156,9 +2675,12 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="B4" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="16"/>
@@ -2168,9 +2690,9 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2179,7 +2701,7 @@
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5"/>
@@ -2187,9 +2709,9 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2198,16 +2720,16 @@
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -2221,9 +2743,9 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2232,7 +2754,7 @@
       <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="6"/>
@@ -2241,9 +2763,12 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="B9" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="16"/>
@@ -2253,9 +2778,12 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="17"/>
+        <v>96</v>
+      </c>
+      <c r="B10" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="16"/>
@@ -2265,9 +2793,9 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4"/>
@@ -2295,13 +2823,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.83203125" bestFit="1" customWidth="1"/>
@@ -2311,30 +2839,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -2342,13 +2870,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>37</v>
+        <v>99</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="5"/>
@@ -2357,10 +2885,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2370,13 +2898,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
@@ -2385,10 +2913,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>42</v>
+        <v>102</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2398,9 +2926,12 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="25"/>
+        <v>103</v>
+      </c>
+      <c r="B7" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
@@ -2409,9 +2940,12 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
@@ -2420,13 +2954,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
@@ -2435,10 +2969,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>43</v>
+        <v>106</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2448,39 +2982,39 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>43</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2488,16 +3022,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>43</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2505,13 +3039,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>43</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
@@ -2520,13 +3054,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
@@ -2535,10 +3069,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2548,10 +3082,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2561,10 +3095,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>37</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -2574,13 +3108,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>40</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="5"/>
@@ -2589,9 +3123,12 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="25"/>
+        <v>116</v>
+      </c>
+      <c r="B20" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
@@ -2600,13 +3137,13 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>38</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="5"/>
@@ -2615,13 +3152,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>38</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="5"/>
@@ -2630,10 +3167,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2643,9 +3180,12 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="B24" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="5"/>
@@ -2654,9 +3194,12 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="25"/>
+        <v>121</v>
+      </c>
+      <c r="B25" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="5"/>
@@ -2665,13 +3208,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>41</v>
+        <v>122</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="5"/>
@@ -2680,9 +3223,12 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="25"/>
+        <v>123</v>
+      </c>
+      <c r="B27" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="5"/>
@@ -2691,10 +3237,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>42</v>
+        <v>124</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2704,9 +3250,12 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="25"/>
+        <v>125</v>
+      </c>
+      <c r="B29" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="5"/>
@@ -2715,13 +3264,13 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>42</v>
+        <v>126</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="5"/>
@@ -2730,37 +3279,37 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>39</v>
+        <v>127</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>37</v>
+        <v>128</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -2768,9 +3317,12 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="B33" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="5"/>
@@ -2779,9 +3331,12 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="25"/>
+        <v>130</v>
+      </c>
+      <c r="B34" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="5"/>
@@ -2790,10 +3345,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>55</v>
+        <v>131</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2803,10 +3358,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>55</v>
+        <v>132</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2816,9 +3371,12 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="25"/>
+        <v>133</v>
+      </c>
+      <c r="B37" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="5"/>
@@ -2827,9 +3385,12 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="25"/>
+        <v>134</v>
+      </c>
+      <c r="B38" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="5"/>
@@ -2838,9 +3399,12 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="25"/>
+        <v>135</v>
+      </c>
+      <c r="B39" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="5"/>
@@ -2849,13 +3413,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>42</v>
+        <v>136</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="5"/>
@@ -2864,9 +3428,12 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="25"/>
+        <v>137</v>
+      </c>
+      <c r="B41" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="5"/>
@@ -2875,28 +3442,31 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>57</v>
+        <v>138</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="B43" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="5"/>
@@ -2905,47 +3475,50 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>46</v>
+        <v>140</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>46</v>
+        <v>141</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="25"/>
+        <v>142</v>
+      </c>
+      <c r="B46" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="5"/>
@@ -2954,9 +3527,12 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="25"/>
+        <v>143</v>
+      </c>
+      <c r="B47" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="5"/>
@@ -2965,9 +3541,12 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="25"/>
+        <v>144</v>
+      </c>
+      <c r="B48" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="5"/>
@@ -2976,9 +3555,12 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="25"/>
+        <v>145</v>
+      </c>
+      <c r="B49" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="5"/>
@@ -2986,16 +3568,16 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="22"/>
+      <c r="A50" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="21"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
@@ -3019,12 +3601,12 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -3032,31 +3614,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="35"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -3064,18 +3646,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="E3" s="18"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -3083,18 +3665,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -3102,18 +3684,18 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E5" s="18"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -3121,18 +3703,18 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="E6" s="18"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -3140,18 +3722,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -3159,18 +3741,18 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="18"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -3178,16 +3760,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -3195,18 +3777,18 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -3214,16 +3796,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -3231,18 +3813,18 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="E12" s="18"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -3250,16 +3832,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -3267,18 +3849,18 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -3286,18 +3868,18 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3305,14 +3887,14 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3320,16 +3902,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3337,19 +3919,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -3358,18 +3940,15 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>103</v>
+        <v>148</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="E19" s="18"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -3377,19 +3956,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>105</v>
+        <v>45</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3398,18 +3977,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="37"/>
+      <c r="C21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="33"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -3431,15 +4010,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
@@ -3449,18 +4028,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -3470,7 +4049,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
@@ -3480,7 +4059,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="19"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -3490,17 +4069,18 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>103</v>
+        <v>221</v>
+      </c>
+      <c r="B3" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="19"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -3512,15 +4092,16 @@
       <c r="A4" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>103</v>
+      <c r="B4" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3530,7 +4111,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
@@ -3540,7 +4121,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="19"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -3550,15 +4131,18 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="9"/>
+        <v>195</v>
+      </c>
+      <c r="B6" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="19"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -3568,15 +4152,18 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>196</v>
+      </c>
+      <c r="B7" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -3586,15 +4173,18 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="B8" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="19"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -3604,15 +4194,18 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="B9" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3622,15 +4215,18 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="B10" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -3640,15 +4236,18 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="B11" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -3658,15 +4257,18 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="B12" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -3676,15 +4278,18 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="9"/>
+        <v>202</v>
+      </c>
+      <c r="B13" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -3694,15 +4299,18 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>203</v>
+      </c>
+      <c r="B14" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -3712,15 +4320,18 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="9"/>
+        <v>204</v>
+      </c>
+      <c r="B15" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -3730,15 +4341,18 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>205</v>
+      </c>
+      <c r="B16" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3748,15 +4362,18 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="B17" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -3766,10 +4383,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
@@ -3778,7 +4395,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -3788,17 +4405,18 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>103</v>
+        <v>222</v>
+      </c>
+      <c r="B19" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -3808,15 +4426,18 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="9"/>
+        <v>207</v>
+      </c>
+      <c r="B20" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -3826,15 +4447,18 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="9"/>
+        <v>208</v>
+      </c>
+      <c r="B21" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -3844,17 +4468,18 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>103</v>
+        <v>223</v>
+      </c>
+      <c r="B22" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="19"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -3864,15 +4489,18 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="B23" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -3882,17 +4510,18 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>103</v>
+        <v>225</v>
+      </c>
+      <c r="B24" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -3902,17 +4531,18 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>103</v>
+        <v>227</v>
+      </c>
+      <c r="B25" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -3922,17 +4552,18 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>103</v>
+        <v>226</v>
+      </c>
+      <c r="B26" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -3942,15 +4573,18 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="B27" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -3960,17 +4594,18 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>229</v>
+      </c>
+      <c r="B28" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -3980,7 +4615,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="10" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>11</v>
@@ -3990,7 +4625,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -4000,19 +4635,19 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="10" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>166</v>
+      <c r="C30" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -4022,15 +4657,18 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B31" s="9"/>
+        <v>215</v>
+      </c>
+      <c r="B31" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -4040,7 +4678,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="10" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>11</v>
@@ -4050,7 +4688,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -4060,7 +4698,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="10" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>11</v>
@@ -4070,7 +4708,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -4080,7 +4718,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="10" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -4090,7 +4728,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -4100,15 +4738,18 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>211</v>
+      </c>
+      <c r="B35" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -4118,7 +4759,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="10" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
@@ -4128,7 +4769,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -4138,15 +4779,18 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="B37" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="19"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
@@ -4156,15 +4800,18 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="9"/>
+        <v>218</v>
+      </c>
+      <c r="B38" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="19"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -4174,7 +4821,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="10" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
@@ -4184,7 +4831,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="19"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -4194,7 +4841,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="10" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
@@ -4204,7 +4851,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -4214,7 +4861,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="10" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>11</v>
@@ -4224,7 +4871,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="19"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -4234,7 +4881,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="10" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>5</v>
@@ -4244,7 +4891,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="19"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -4254,7 +4901,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="10" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>11</v>
@@ -4264,7 +4911,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="19"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -4273,8 +4920,8 @@
       <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="44" t="s">
-        <v>280</v>
+      <c r="A44" s="40" t="s">
+        <v>213</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -4284,7 +4931,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="19"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -4294,19 +4941,16 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="19"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -4316,17 +4960,17 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="10" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="19"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -4336,21 +4980,21 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="10" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -4360,19 +5004,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="10" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="19"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -4382,21 +5023,18 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="10" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -4406,17 +5044,18 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>103</v>
+        <v>238</v>
+      </c>
+      <c r="B50" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="19"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -4426,7 +5065,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="10" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>11</v>
@@ -4435,19 +5074,19 @@
         <v>5</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>152</v>
+        <v>70</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>153</v>
+        <v>65</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -4458,23 +5097,17 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="10" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>145</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="42"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="19"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -4484,17 +5117,17 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="10" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="46"/>
+      <c r="E53" s="42"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -4504,17 +5137,17 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="46"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="19"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -4524,17 +5157,23 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="10" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="19"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -4544,23 +5183,21 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="10" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="19"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -4570,21 +5207,16 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="10" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>146</v>
-      </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="19"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -4594,19 +5226,16 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="10" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="19"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -4616,19 +5245,17 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="10" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="19"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -4638,17 +5265,18 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="19"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -4658,21 +5286,20 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="10" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="9"/>
+        <v>75</v>
+      </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="19"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -4682,23 +5309,24 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="10" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="18"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -4708,27 +5336,24 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="10" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H63" s="19"/>
+        <v>76</v>
+      </c>
+      <c r="H63" s="18"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -4738,27 +5363,18 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -4768,21 +5384,24 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="10" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="18"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -4792,27 +5411,18 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H66" s="19"/>
+        <v>256</v>
+      </c>
+      <c r="B66" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -4822,17 +5432,18 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="10" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="19"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -4842,21 +5453,18 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>5</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B68" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="19"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -4866,17 +5474,18 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>103</v>
+        <v>258</v>
+      </c>
+      <c r="B69" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="19"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -4886,17 +5495,18 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>103</v>
+        <v>259</v>
+      </c>
+      <c r="B70" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="19"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -4906,17 +5516,20 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="10" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+        <v>11</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="19"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -4926,23 +5539,24 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="10" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" s="18"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
@@ -4952,28 +5566,20 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="10" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -4982,22 +5588,19 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="10" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="6"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -5006,20 +5609,19 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B75" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="6"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -5028,41 +5630,51 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="10" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="10" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="18"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -5072,57 +5684,37 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="10" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H79" s="19"/>
+        <v>268</v>
+      </c>
+      <c r="B79" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="18"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
@@ -5132,19 +5724,18 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B80" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-      <c r="H80" s="19"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -5154,113 +5745,110 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>103</v>
+        <v>270</v>
+      </c>
+      <c r="B81" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="10" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="10" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>5</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B84" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="10" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H85" s="19"/>
+        <v>78</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -5270,192 +5858,136 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="10" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="N86" s="6"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="10" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="10" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H88" s="19"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-      <c r="N88" s="6"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="10" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" s="18"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="A90" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B90" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="45" t="s">
-        <v>281</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5476,7 +6008,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5489,42 +6021,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
@@ -5532,214 +6064,226 @@
         <v>176</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="18"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="15"/>
+        <v>181</v>
+      </c>
+      <c r="B6" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="18"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="15"/>
+        <v>171</v>
+      </c>
+      <c r="B11" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="15"/>
+        <v>172</v>
+      </c>
+      <c r="B12" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="24"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="15"/>
+        <v>173</v>
+      </c>
+      <c r="B13" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="G18" s="24"/>
+      <c r="E18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
@@ -5756,7 +6300,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -5779,13 +6323,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="35.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -5795,21 +6339,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="48" t="s">
-        <v>287</v>
+      <c r="A2" s="43" t="s">
+        <v>281</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -5818,18 +6362,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="35"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="49" t="s">
-        <v>288</v>
+      <c r="A3" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>3</v>
@@ -5837,31 +6381,31 @@
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="44" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="49" t="s">
-        <v>289</v>
-      </c>
       <c r="B4" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="49" t="s">
-        <v>290</v>
+      <c r="A5" s="44" t="s">
+        <v>284</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>3</v>
@@ -5869,186 +6413,191 @@
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>283</v>
+      <c r="E5" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>103</v>
+      <c r="A6" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="49" t="s">
-        <v>292</v>
+      <c r="A7" s="44" t="s">
+        <v>286</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="49" t="s">
-        <v>293</v>
+      <c r="A8" s="44" t="s">
+        <v>289</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="49" t="s">
-        <v>294</v>
+      <c r="A9" s="44" t="s">
+        <v>290</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>103</v>
+      <c r="A10" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="19"/>
-      <c r="H10" s="43"/>
+      <c r="E10" s="18"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="49" t="s">
-        <v>296</v>
+      <c r="A11" s="44" t="s">
+        <v>291</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="49" t="s">
-        <v>297</v>
+      <c r="A12" s="44" t="s">
+        <v>292</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="49" t="s">
-        <v>298</v>
+      <c r="A13" s="44" t="s">
+        <v>293</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="A14" s="44" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="49" t="s">
-        <v>300</v>
+      <c r="A15" s="44" t="s">
+        <v>297</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="44" t="s">
         <v>301</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="49" t="s">
-        <v>302</v>
+      <c r="A17" s="44" t="s">
+        <v>294</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>3</v>
@@ -6056,18 +6605,18 @@
       <c r="D17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F17" s="24"/>
+      <c r="E17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="23"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="44" t="s">
         <v>303</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
@@ -6075,26 +6624,29 @@
       <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" s="24"/>
+      <c r="E18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="49" t="s">
-        <v>305</v>
+      <c r="A20" s="44" t="s">
+        <v>298</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>3</v>
@@ -6102,75 +6654,74 @@
       <c r="D20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>283</v>
+      <c r="E20" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="49" t="s">
-        <v>306</v>
+      <c r="A21" s="44" t="s">
+        <v>307</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>103</v>
+      <c r="A22" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="19"/>
-      <c r="G22" s="43"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="49" t="s">
-        <v>307</v>
+      <c r="A23" s="44" t="s">
+        <v>304</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="19"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="44" t="s">
         <v>308</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="44" t="s">
         <v>309</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
@@ -6178,36 +6729,34 @@
       <c r="D25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>283</v>
+      <c r="E25" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="44" t="s">
         <v>310</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="19"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="49" t="s">
-        <v>311</v>
+      <c r="A27" s="44" t="s">
+        <v>299</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="19" t="s">
-        <v>283</v>
+      <c r="E27" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -6216,17 +6765,20 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="A28" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="49" t="s">
-        <v>313</v>
+      <c r="A29" s="44" t="s">
+        <v>312</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>4</v>
@@ -6235,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>165</v>
+        <v>84</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F29" s="6"/>
       <c r="H29" s="6"/>
@@ -6246,8 +6798,8 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="49" t="s">
-        <v>314</v>
+      <c r="A30" s="44" t="s">
+        <v>313</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>4</v>
@@ -6256,19 +6808,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>165</v>
+        <v>84</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="23"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="49" t="s">
-        <v>315</v>
+      <c r="A31" s="44" t="s">
+        <v>287</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>3</v>
@@ -6277,32 +6829,35 @@
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="B32" s="9"/>
+      <c r="A32" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="18"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="49" t="s">
-        <v>317</v>
+      <c r="A33" s="44" t="s">
+        <v>314</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>4</v>
@@ -6311,17 +6866,17 @@
         <v>3</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>165</v>
+        <v>84</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="49" t="s">
-        <v>318</v>
+      <c r="A34" s="44" t="s">
+        <v>315</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>4</v>
@@ -6330,17 +6885,17 @@
         <v>3</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>165</v>
+        <v>84</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="49" t="s">
-        <v>319</v>
+      <c r="A35" s="44" t="s">
+        <v>305</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>4</v>
@@ -6349,64 +6904,67 @@
         <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="49" t="s">
-        <v>320</v>
+      <c r="A36" s="44" t="s">
+        <v>311</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="19"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="49" t="s">
-        <v>321</v>
+      <c r="A37" s="44" t="s">
+        <v>316</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="B38" s="9"/>
+      <c r="A38" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="49" t="s">
-        <v>323</v>
+      <c r="A39" s="44" t="s">
+        <v>318</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="50" t="s">
-        <v>324</v>
+      <c r="A40" s="45" t="s">
+        <v>320</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
@@ -6415,18 +6973,18 @@
         <v>5</v>
       </c>
       <c r="D40" s="9"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="B41" s="33" t="s">
+      <c r="A41" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="37"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6446,159 +7004,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="82.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="87.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="15"/>
+      <c r="A2" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="40"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>186</v>
+      </c>
+      <c r="B4" s="50" t="str">
+        <f>LOWER(TRUE)</f>
+        <v>true</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="19"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="40"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="19"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="36"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="37"/>
+      <c r="A9" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="40"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="6"/>
     </row>
   </sheetData>

--- a/ground_truth.xlsx
+++ b/ground_truth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SWING" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="320">
   <si>
     <t>API</t>
   </si>
@@ -159,9 +159,6 @@
     <t>!$RECEIVER$.isValidSubclass()</t>
   </si>
   <si>
-    <t>$RECEIVER$ != null</t>
-  </si>
-  <si>
     <t>!$RECEIVER$.isDisposed()</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>javax.swing.text.Document.getText(int, int)</t>
   </si>
   <si>
-    <t>javax.swing.text.Document.insertString(int, String, AttributeSet)</t>
-  </si>
-  <si>
     <t>javax.swing.text.JTextComponent.getDocument()</t>
   </si>
   <si>
@@ -309,39 +303,18 @@
     <t>javax.swing.table.DefaultTableModel.removeRow(int)</t>
   </si>
   <si>
-    <t>javax.swing.table.DefaultTableModel.setValueAt(Object, int, int)</t>
-  </si>
-  <si>
-    <t>javax.swing.table.JTableHeader.columnAtPoint(Point)</t>
-  </si>
-  <si>
     <t>javax.swing.table.JTableHeader.getColumnModel()</t>
   </si>
   <si>
-    <t>javax.swing.text.StyleConstants.setBold(MutableAttributeSet, boolean)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.XMLStreamReader.getLocalName()</t>
   </si>
   <si>
-    <t>javax.xml.stream.XMLStreamReader.getAttributeValue(String, String)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.XMLStreamReader.next()</t>
   </si>
   <si>
     <t>javax.xml.stream.XMLStreamReader.getAttributeValue(int)</t>
   </si>
   <si>
-    <t>javax.xml.parsers.DocumentBuilder.parse(String)</t>
-  </si>
-  <si>
-    <t>javax.xml.stream.XMLStreamReader.require(int, String, String)</t>
-  </si>
-  <si>
-    <t>javax.xml.transform.sax.SAXSource.sourceToInputSource(Source)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.XMLStreamReader.getAttributeLocalName(int)</t>
   </si>
   <si>
@@ -363,9 +336,6 @@
     <t>javax.xml.stream.XMLStreamReader.getAttributeNamespace(int)</t>
   </si>
   <si>
-    <t>javax.xml.bind.Unmarshaller.unmarshal(XMLStreamReader)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.events.XMLEvent.asEndElement()</t>
   </si>
   <si>
@@ -399,15 +369,9 @@
     <t>javax.xml.stream.XMLStreamReader.isStartElement()</t>
   </si>
   <si>
-    <t>javax.xml.parsers.SAXParser.parse(InputStream, DefaultHandler)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.XMLStreamReader.getNamespaceURI()</t>
   </si>
   <si>
-    <t>javax.xml.bind.Unmarshaller.unmarshal(XMLEventReader, Class)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.XMLStreamReader.nextTag()</t>
   </si>
   <si>
@@ -435,9 +399,6 @@
     <t>javax.xml.stream.events.XMLEvent.getLocation()</t>
   </si>
   <si>
-    <t>javax.xml.transform.Transformer.transform(Source, Result)</t>
-  </si>
-  <si>
     <t>javax.xml.stream.XMLStreamReader.close()</t>
   </si>
   <si>
@@ -465,57 +426,21 @@
     <t>javax.xml.stream.XMLStreamReader.getEncoding()</t>
   </si>
   <si>
-    <t>javax.xml.xquery.XQPreparedExpression.bindObject(Qname, Object, XQItemType)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Composite.$new$(Composite, int)</t>
-  </si>
-  <si>
     <t>org.eclipse.swt.widgets.Composite.computeSize(int, int)</t>
   </si>
   <si>
-    <t>org.eclipse.swt.widgets.Label.$new$(Composite, int)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Label.setText(String)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Button.$new$(Composite, int)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Button.setText(String)</t>
-  </si>
-  <si>
     <t>org.eclipse.swt.widgets.Button.setEnabled(boolean)</t>
   </si>
   <si>
     <t>org.eclipse.swt.widgets.Button.setSelection(boolean)</t>
   </si>
   <si>
-    <t>org.eclipse.swt.widgets.Text.$new$(Composite, int)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Text.setText(String)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Group.$new$(Composite, int)</t>
-  </si>
-  <si>
-    <t>org.eclipse.swt.widgets.Group.setText(String)</t>
-  </si>
-  <si>
     <t>org.eclipse.swt.widgets.Combo.select(int)</t>
   </si>
   <si>
-    <t>org.eclipse.swt.widgets.Combo.add(String)</t>
-  </si>
-  <si>
     <t>org.eclipse.swt.widgets.Combo.getItem(int)</t>
   </si>
   <si>
-    <t>org.eclipse.swt.widgets.Shell.setText(String)</t>
-  </si>
-  <si>
     <t>org.eclipse.swt.widgets.Shell.setSize(int, int)</t>
   </si>
   <si>
@@ -525,18 +450,9 @@
     <t>org.eclipse.swt.widgets.Table.getItem(int)</t>
   </si>
   <si>
-    <t>org.eclipse.swt.widgets.TableItem.setText(int, String)</t>
-  </si>
-  <si>
-    <t>weka.core.Instances.instance(Instances)</t>
-  </si>
-  <si>
     <t>weka.core.Instances.attribute(int)</t>
   </si>
   <si>
-    <t>weka.core.Instances.add(Instance)</t>
-  </si>
-  <si>
     <t>weka.core.Instances.setClassIndex(int)</t>
   </si>
   <si>
@@ -552,42 +468,24 @@
     <t>weka.core.Instances.classAttribute()</t>
   </si>
   <si>
-    <t>weka.core.Instances.insertAttributeAt(Attribute, int)</t>
-  </si>
-  <si>
     <t>weka.core.Instance.value(int)</t>
   </si>
   <si>
     <t>weka.core.Instance.isMissing(int)</t>
   </si>
   <si>
-    <t>weka.core.Instance.setValue(int, String)</t>
-  </si>
-  <si>
     <t>weka.core.Instance.valueSparse(int)</t>
   </si>
   <si>
     <t>weka.core.FastVector.elementAt(int)</t>
   </si>
   <si>
-    <t>weka.core.FastVector.addElement(Object)</t>
-  </si>
-  <si>
     <t>weka.core.Attribute.value(int)</t>
   </si>
   <si>
-    <t>weka.core.Attribute.indexOfValue(String)</t>
-  </si>
-  <si>
     <t>weka.core.Range.isInRange(int)</t>
   </si>
   <si>
-    <t>org.apache.commons.math.MathRuntimeException.createIllegalArgumentException(Localizable, Object...)</t>
-  </si>
-  <si>
-    <t>org.apache.commons.math.MathRuntimeException.createArithmeticException(Localizable, Object...)</t>
-  </si>
-  <si>
     <t>org.apache.commons.math.linear.RealMatrix.getEntry(int, int)</t>
   </si>
   <si>
@@ -606,9 +504,6 @@
     <t>org.apache.commons.math3.util.ArithmeticUtils.gcd(int, int)</t>
   </si>
   <si>
-    <t>org.jfree.chart.plot.XYPlot.setRenderer(int, XYItemRenderer)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.plot.Plot.isNotify()</t>
   </si>
   <si>
@@ -648,153 +543,15 @@
     <t>org.jfree.chart.plot.IntervalMarker.getGradientPaintTransformer()</t>
   </si>
   <si>
-    <t>org.jfree.chart.plot.XYPlot.getDomainAxisIndex(ValueAxis)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.getRangeAxisIndex(ValueAxis)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setOrientation(PlotOrientation)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setRangeGridlinePaint(Paint)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setDataset(int, XYDataset)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.setDomainGridlinePaint(Paint)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.XYPlot.addAnnotation(XYAnnotation)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.getIndexOf(CategoryItemRenderer)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setDomainAxis(CategoryAxis)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setOrientation(PlotOrientation)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setRangeGridlinePaint(Paint)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setRenderer(CategoryItemRenderer)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryPlot.setDomainGridlinePaint(Paint)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PlotRenderingInfo.getSubplotInfo(PlotRenderingInfo)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.plot.Plot.setNotify(boolean)</t>
   </si>
   <si>
-    <t>org.jfree.chart.plot.Crosshair.removePropertyChangeListener(PropertyChangeListener)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Plot.setBackgroundPaint(Paint)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Pannable.panDomainAxes(double, PlotRenderInfo, Point2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairPoint(Comparable, Comparable, double, int, double, double, PlotOrientation)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CrosshairState.updateCrosshairPoint(Comparable, Comparable, double, int, double, double, PlotOrientation)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairX(Comparable, Comparable, int, double, PlotOrientation)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Pannable.panRangeAxes(double, PlotRenderingInfo, Point2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.Plot.setDrawingSupplier(DrawingSupplier)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.CombinedDomainXYPlot.add(XYPlot, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setLabelGenerator(PieSectionLabelGenerator)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setToolTipGenerator(PieToolTipGenerator)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setSectionPaint(Comparable, Paint)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.plot.PiePlot.setURLGenerator(PieURLGenerator)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.valueToJava2D(double, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.java2DToValue(double, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ValueAxis.reserveSpace(Graphics2D, Plot, Rectangle2D, RectangleEdge, AxisSpace)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.axis.ValueAxis.isInverted()</t>
   </si>
   <si>
-    <t>org.jfree.chart.axis.AxisSpace.shrink(Rectangle2D, Rectangle2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.AxisSpace.reserved(Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryMiddle(int, int, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryStart(int, int, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryEnd(int, int, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategoryJava2DCoordinate(CategoryAnchor, int, int, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.CategoryAxis.getCategorySeriesMiddle(Comparable, Comparable, CategoryDataset, double, Rectangle2D, RectangleEdge)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.axis.ColorBar.reserveSpace(Graphics2D, Plot, Recatngle2D, Rectangle2D, RectangleEdge, AxisSpace)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.StandardEntityCollection.add(ChartEntity)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.StandardEntityCollection.addAll(EntityCollection)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.entity.EntityCollection.addAll(EntityCollection)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.entity.EntityCollection.getEntity(int)</t>
   </si>
   <si>
-    <t>org.jfree.chart.labels.XYSeriesLabelGenerator.generateLabel(XYDataset, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.XYToolTipGenerator.generateToolTip(XYDataset, int, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.XYItemLabelGenerator.generateLabel(XYDataset, int, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.PieSectionLabelGenerator.generateSectionLabel(PieDataset, Comparable)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.CategoryToolTipGenerator.generateToolTip(CategoryDataset, int, int)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.labels.ItemLabelPosition.getItemLabelAnchor()</t>
   </si>
   <si>
@@ -807,72 +564,18 @@
     <t>org.jfree.chart.labels.ItemLabelPosition.getAngle()</t>
   </si>
   <si>
-    <t>org.jfree.chart.labels.PieToolTipGenerator.generateToolTip(PieDataset, Comparable)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.CategorySeriesLabelGenerator.generateLabel(CategoryDataset, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.labels.CategoryItemLabelGenerator.generateLabel(CategoryDatset, int, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeLine(Graphics2D, XYPlot, ValueAxis, Ractangle2D, double, Paint, Stroke)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findRangeBounds(XYDataset)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeMarker(Graphics2D, XYPlot, ValueAxis, Marker, Ractangle2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawDomainMarker(Graphics2D, XYPlot, ValueAxis, Marker, Ractangle2D)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.renderer.xy.XYItemRenderer.getLegendItem(int, int)</t>
   </si>
   <si>
     <t>org.jfree.chart.renderer.xy.XYItemRenderer.isSeriesVisibleInLegend(int)</t>
   </si>
   <si>
-    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findDomainBounds(XYDataset)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.renderer.xy.XYItemRenderer.isSeriesVisible(int)</t>
   </si>
   <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeGridline(GraphicsPlot, CategoryPlot, ValueAxis, Rectangle2D, double)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawDomainMarker(Graphics2D, CategoryPlot, CategoryAxis, CategoryMarker, Rectangle2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawOutline(Graphics2D, CategoryPlot, Rectangle2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.findRangeBounds(CategoryDataset)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.initialise(Graphics2D, Rectangle2D, CategoryPlot, int, PlotRenderingInfo)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawItem(Graphics2D, CategoryItemRendererState, Rectangle2D, CategoryPlot, CategoryAxis, ValueAxis, CategoryDataset, int, int, int)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawBackground(Graphics2D, CategoryPlot, Rectangle2D)</t>
-  </si>
-  <si>
-    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeMarker(Graphics2D, CategoryPlot, ValueAxis, Marker, Ractangle2D)</t>
-  </si>
-  <si>
     <t>org.jfree.chart.renderer.PolarItemRenderer.getLegendItem(int)</t>
   </si>
   <si>
-    <t>org.jfree.chart.title.TextTitle.setText(String)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.XYSeries.add(Comparable, Boolean)</t>
-  </si>
-  <si>
     <t>org.jfree.data.xy.XYDataset.getXValue(int, int)</t>
   </si>
   <si>
@@ -891,9 +594,6 @@
     <t>org.jfree.data.xy.XYDataset.getY(int, int)</t>
   </si>
   <si>
-    <t>org.jfree.data.xy.XYDataset.addChangeListener(DatasetChangeListener)</t>
-  </si>
-  <si>
     <t>org.jfree.data.xy.IntervalXYDataset.getEndXValue(int, int)</t>
   </si>
   <si>
@@ -960,9 +660,6 @@
     <t>org.jfree.data.xy.XYSeriesCollection.getSeriesKey(int)</t>
   </si>
   <si>
-    <t>org.jfree.data.xy.XYSeriesCollection.addSeries(XYSeries)</t>
-  </si>
-  <si>
     <t>org.jfree.data.xy.VectorXYDataset.getVectorXValue(int, int)</t>
   </si>
   <si>
@@ -975,19 +672,319 @@
     <t>org.jfree.data.xy.VectorXYDataset.getVectorYValue(int, int)</t>
   </si>
   <si>
-    <t>org.jfree.data.xy.DefaultTableXYDataset.addSeries(XYseries)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.DefaultTableXYDataset.equals(Object)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.xy.MatrixSeriesCollection.addSeries(MatrixSeries)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.time.DateRange.$new$(Range)</t>
-  </si>
-  <si>
-    <t>org.jfree.data.time.DateRange.$new$(Date, Date)</t>
+    <t>org.apache.commons.math.MathRuntimeException.createIllegalArgumentException(org.apache.commons.math.exception.util.Localizable, java.lang.Object...)</t>
+  </si>
+  <si>
+    <t>org.apache.commons.math.MathRuntimeException.createArithmeticException(org.apache.commons.math.exception.util.Localizable, java.lang.Object...)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeries.add(java.lang.Comparable, boolean)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYDataset.addChangeListener(org.jfree.data.general.DatasetChangeListener)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.XYSeriesCollection.addSeries(org.jfree.data.xy.XYSeries)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.DefaultTableXYDataset.addSeries(org.jfree.data.xy.XYSeries)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.DefaultTableXYDataset.equals(java.lang.Object)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.xy.MatrixSeriesCollection.addSeries(org.jfree.data.xy.MatrixSeries)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.time.DateRange.$new$(java.util.Date, java.util.Date)</t>
+  </si>
+  <si>
+    <t>org.jfree.data.time.DateRange.$new$(org.jfree.data.Range)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.instance(weka.core.Instances)</t>
+  </si>
+  <si>
+    <t>weka.core.FastVector.addElement(java.lang.Object)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.add(weka.core.Instance)</t>
+  </si>
+  <si>
+    <t>weka.core.Instance.setValue(int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>weka.core.Attribute.indexOfValue(java.lang.String)</t>
+  </si>
+  <si>
+    <t>weka.core.Instances.insertAttributeAt(weka.core.Attribute, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Composite.$new$(org.eclipse.swt.widgets.Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Label.$new$(org.eclipse.swt.widgets.Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Button.$new$(org.eclipse.swt.widgets.Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Label.setText(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Text.$new$(org.eclipse.swt.widgets.Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Button.setText(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Text.setText(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Group.$new$(org.eclipse.swt.widgets.Composite, int)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Group.setText(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Shell.setText(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.Combo.add(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.eclipse.swt.widgets.TableItem.setText(int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.getAttributeValue(java.lang.String, java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.xml.stream.XMLStreamReader.require(int, java.lang.String, java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.xml.transform.sax.SAXSource.sourceToInputSource(org.xml.sax.InputSource)</t>
+  </si>
+  <si>
+    <t>javax.xml.bind.Unmarshaller.unmarshal(org.xml.sax.InputSource)</t>
+  </si>
+  <si>
+    <t>javax.xml.parsers.SAXParser.parse(java.io.InputStream, org.xml.sax.helpers.DefaultHandler)</t>
+  </si>
+  <si>
+    <t>javax.xml.bind.Unmarshaller.unmarshal(javax.xml.transform.Source, Class&lt;T&gt;)</t>
+  </si>
+  <si>
+    <t>javax.xml.transform.Transformer.transform(javax.xml.transform.Source, javax.xml.transform.Result)</t>
+  </si>
+  <si>
+    <t>javax.xml.xquery.XQPreparedExpression.bindObject(javax.xml.namespace.QName, java.lang.Object, javax.xml.xquery.XQItemType)</t>
+  </si>
+  <si>
+    <t>javax.xml.parsers.DocumentBuilder.parse(java.lang.String)</t>
+  </si>
+  <si>
+    <t>javax.swing.text.Document.insertString(int, java.lang.String, javax.swing.text.AttributeSet)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.DefaultTableModel.setValueAt(java.lang.Object, int, int)</t>
+  </si>
+  <si>
+    <t>javax.swing.table.JTableHeader.columnAtPoint(java.awt.Point)</t>
+  </si>
+  <si>
+    <t>javax.swing.text.StyleConstants.setBold( javax.swing.text.MutableAttributeSet, boolean)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.title.TextTitle.setText(java.lang.String)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setRenderer(int, org.jfree.chart.renderer.xy.XYItemRenderer)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.getIndexOf(org.jfree.chart.renderer.category.CategoryItemRenderer)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setRenderer(org.jfree.chart.renderer.category.CategoryItemRenderer)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PlotRenderingInfo.getSubplotInfo(org.jfree.chart.plot.PlotRenderingInfo)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Crosshair.removePropertyChangeListener(java.beans.PropertyChangeListener)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.getDomainAxisIndex(org.jfree.chart.axis.ValueAxis)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.getRangeAxisIndex(org.jfree.chart.axis.ValueAxis)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Plot.setBackgroundPaint(java.awt.Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setRangeGridlinePaint(java.awt.Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setRangeGridlinePaint(java.awt.Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setDomainGridlinePaint(java.awt.Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setDomainGridlinePaint(java.awt.Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Pannable.panDomainAxes(double, org.jfree.chart.plot.PlotRenderingInfo, java.awt.geom.Point2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Pannable.panRangeAxes(double, org.jfree.chart.plot.PlotRenderingInfo, java.awt.geom.Point2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CrosshairState.updateCrosshairPoint(double, double, int, int, double, double, org.jfree.chart.plot.PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setOrientation(org.jfree.chart.plot.PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairPoint(java.lang.Comparable, java.lang.Comparable, double, int, double, double, org.jfree.chart.plot.PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryCrosshairState.updateCrosshairX(java.lang.Comparable, java.lang.Comparable, int, double, org.jfree.chart.plot.PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.Plot.setDrawingSupplier(org.jfree.chart.plot.DrawingSupplier)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CombinedDomainXYPlot.add(org.jfree.chart.plot.XYPlot, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.CategoryPlot.setDomainAxis(org.jfree.chart.axis.CategoryAxis)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setSectionPaint(java.lang.Comparable, java.awt.Paint)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setOrientation(org.jfree.chart.plot.PlotOrientation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.setDataset(int, org.jfree.data.xy.XYDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.XYSeriesLabelGenerator.generateLabel(org.jfree.data.xy.XYDataset, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.XYToolTipGenerator.generateToolTip(org.jfree.data.xy.XYDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.XYItemLabelGenerator.generateLabel(org.jfree.data.xy.XYDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findRangeBounds(org.jfree.data.xy.XYDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.findDomainBounds(org.jfree.data.xy.XYDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setLabelGenerator(org.jfree.chart.labels.PieSectionLabelGenerator)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setToolTipGenerator(org.jfree.chart.labels.PieToolTipGenerator)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.PiePlot.setURLGenerator(org.jfree.chart.urls.PieURLGenerator)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.plot.XYPlot.addAnnotation(org.jfree.chart.annotations.XYAnnotation)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.AxisSpace.shrink(java.awt.geom.Rectangle2D, java.awt.geom.Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.valueToJava2D(double, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryMiddle(int, int, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.java2DToValue(double, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryStart(int, int, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryEnd(int, int, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.AxisSpace.reserved(java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ColorBar.reserveSpace(java.awt.Graphics2D, org.jfree.chart.plot.Plot, java.awt.geom.Rectangle2D, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge, org.jfree.chart.axis.AxisSpace)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategorySeriesMiddle(java.lang.Comparable, java.lang.Comparable,  org.jfree.data.category.CategoryDataset, double, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.CategoryToolTipGenerator.generateToolTip(org.jfree.data.category.CategoryDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.CategorySeriesLabelGenerator.generateLabel(org.jfree.data.category.CategoryDataset, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.CategoryItemLabelGenerator.generateLabel(org.jfree.data.category.CategoryDataset, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.CategoryAxis.getCategoryJava2DCoordinate(org.jfree.chart.axis.CategoryAnchor, int, int, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.StandardEntityCollection.add(org.jfree.chart.entity.ChartEntity)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.StandardEntityCollection.addAll(org.jfree.chart.entity.EntityCollection)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.entity.EntityCollection.addAll(org.jfree.chart.entity.EntityCollection)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.PieSectionLabelGenerator.generateSectionLabel(org.jfree.data.general.PieDataset, java.lang.Comparable)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.labels.PieToolTipGenerator.generateToolTip(org.jfree.data.general.PieDataset, java.lang.Comparable)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeGridline(java.awt.Graphics2D, org.jfree.chart.plot.CategoryPlot, org.jfree.chart.axis.ValueAxis, java.awt.geom.Rectangle2D, double)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.findRangeBounds(org.jfree.data.category.CategoryDataset)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawItem(java.awt.Graphics2D, org.jfree.chart.renderer.category.CategoryItemRendererState, java.awt.geom.Rectangle2D, org.jfree.chart.plot.CategoryPlot, org.jfree.chart.axis.CategoryAxis, org.jfree.chart.axis.ValueAxis,  org.jfree.data.category.CategoryDataset, int, int, int)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.axis.ValueAxis.reserveSpace(java.awt.Graphics2D, org.jfree.chart.plot.Plot, java.awt.geom.Rectangle2D, org.jfree.ui.RectangleEdge, org.jfree.chart.axis.AxisSpace)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeLine(java.awt.Graphics2D, org.jfree.chart.plot.XYPlot, org.jfree.chart.axis.ValueAxis, java.awt.geom.Ractangle2D, double, java.awt.Paint, java.awt.Stroke)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawRangeMarker(java.awt.Graphics2D, org.jfree.chart.plot.XYPlot, org.jfree.chart.axis.ValueAxis, org.jfree.chart.plot.Marker, java.awt.geom.Ractangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.xy.XYItemRenderer.drawDomainMarker(java.awt.Graphics2D, org.jfree.chart.plot.XYPlot, org.jfree.chart.axis.ValueAxis, org.jfree.chart.plot.Marker, java.awt.geom.Ractangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawOutline(java.awt.Graphics2D, org.jfree.chart.plot.CategoryPlot, java.awt.geom.Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawDomainMarker(java.awt.Graphics2D, org.jfree.chart.plot.CategoryPlot, org.jfree.chart.axis.CategoryAxis, org.jfree.chart.plot.CategoryMarker, java.awt.geom.Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.initialise(java.awt.Graphics2D, java.awt.geom.Rectangle2D, org.jfree.chart.plot.CategoryPlot, int, org.jfree.chart.plot.PlotRenderingInfo)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawBackground(java.awt.Graphics2D, org.jfree.chart.plot.CategoryPlot, java.awt.geom.Rectangle2D)</t>
+  </si>
+  <si>
+    <t>org.jfree.chart.renderer.category.CategoryItemRenderer.drawRangeMarker(java.awt.Graphics2D, org.jfree.chart.plot.CategoryPlot, org.jfree.chart.axis.ValueAxis, org.jfree.chart.plot.Marker, java.awt.geom.Ractangle2D)</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="475">
+  <cellStyleXfs count="569">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1739,8 +1736,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1810,8 +1901,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="475">
+  <cellStyles count="569">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2049,6 +2143,53 @@
     <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2286,6 +2427,53 @@
     <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2618,12 +2806,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="74.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2642,7 +2830,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>2</v>
@@ -2661,7 +2849,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>4</v>
@@ -2675,7 +2863,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -2690,7 +2878,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>6</v>
@@ -2709,7 +2897,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>6</v>
@@ -2727,7 +2915,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>6</v>
@@ -2743,7 +2931,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>94</v>
+        <v>253</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>7</v>
@@ -2763,7 +2951,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="B9" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -2778,7 +2966,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B10" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -2793,7 +2981,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
@@ -2823,13 +3011,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.83203125" bestFit="1" customWidth="1"/>
@@ -2853,7 +3041,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>13</v>
@@ -2870,7 +3058,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>16</v>
@@ -2885,7 +3073,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>18</v>
@@ -2898,7 +3086,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>19</v>
@@ -2913,7 +3101,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>21</v>
@@ -2926,7 +3114,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -2940,7 +3128,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="B8" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -2954,7 +3142,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>17</v>
@@ -2969,7 +3157,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>22</v>
@@ -2982,7 +3170,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>23</v>
@@ -3005,7 +3193,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>22</v>
@@ -3022,7 +3210,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>22</v>
@@ -3039,7 +3227,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>22</v>
@@ -3054,7 +3242,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>17</v>
@@ -3069,7 +3257,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>21</v>
@@ -3082,7 +3270,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>31</v>
@@ -3095,7 +3283,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>16</v>
@@ -3108,7 +3296,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>19</v>
@@ -3123,7 +3311,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B20" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3137,7 +3325,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>17</v>
@@ -3152,7 +3340,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>17</v>
@@ -3167,7 +3355,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>32</v>
@@ -3180,7 +3368,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B24" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3194,7 +3382,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B25" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3208,7 +3396,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>17</v>
@@ -3223,7 +3411,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B27" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3237,7 +3425,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>21</v>
@@ -3250,7 +3438,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B29" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3264,7 +3452,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>21</v>
@@ -3279,7 +3467,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>18</v>
@@ -3300,7 +3488,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>16</v>
@@ -3317,7 +3505,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B33" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3331,7 +3519,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B34" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3345,7 +3533,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>34</v>
@@ -3358,7 +3546,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>34</v>
@@ -3371,7 +3559,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B37" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3385,7 +3573,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B38" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3399,7 +3587,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B39" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3413,7 +3601,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>21</v>
@@ -3428,7 +3616,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B41" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3442,7 +3630,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>36</v>
@@ -3461,7 +3649,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B43" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3475,7 +3663,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>25</v>
@@ -3494,7 +3682,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>25</v>
@@ -3513,7 +3701,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B46" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3527,7 +3715,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B47" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3541,7 +3729,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B48" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3555,7 +3743,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B49" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -3569,7 +3757,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="21" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>21</v>
@@ -3601,12 +3789,12 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -3629,7 +3817,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="28" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>11</v>
@@ -3646,7 +3834,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>11</v>
@@ -3665,7 +3853,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>11</v>
@@ -3684,7 +3872,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>11</v>
@@ -3693,7 +3881,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="9"/>
@@ -3703,7 +3891,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>11</v>
@@ -3722,7 +3910,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>11</v>
@@ -3731,7 +3919,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="9"/>
@@ -3741,13 +3929,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>42</v>
@@ -3760,10 +3948,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>42</v>
@@ -3777,7 +3965,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>11</v>
@@ -3796,10 +3984,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>42</v>
@@ -3813,7 +4001,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>11</v>
@@ -3832,13 +4020,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="18"/>
@@ -3849,10 +4037,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>11</v>
@@ -3868,7 +4056,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>11</v>
@@ -3877,7 +4065,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="9"/>
@@ -3887,10 +4075,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3902,13 +4090,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="18"/>
@@ -3919,16 +4107,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>42</v>
@@ -3940,10 +4128,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>42</v>
@@ -3956,7 +4144,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>4</v>
@@ -3965,10 +4153,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3977,7 +4165,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>5</v>
@@ -3986,7 +4174,7 @@
         <v>42</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="9"/>
@@ -4012,13 +4200,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="224.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="35.1640625" bestFit="1" customWidth="1"/>
@@ -4049,7 +4237,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="10" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>4</v>
@@ -4069,7 +4257,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B3" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4090,7 +4278,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="10" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B4" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4111,7 +4299,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
@@ -4131,7 +4319,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B6" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4152,7 +4340,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4173,7 +4361,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B8" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4194,7 +4382,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B9" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4215,7 +4403,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="10" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B10" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4236,7 +4424,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="10" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="B11" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4257,7 +4445,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B12" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4278,7 +4466,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="B13" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4299,7 +4487,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="B14" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4320,7 +4508,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B15" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4341,7 +4529,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B16" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4362,7 +4550,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="B17" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4383,10 +4571,10 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
@@ -4405,7 +4593,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="10" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="B19" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4426,7 +4614,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="B20" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4447,7 +4635,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="B21" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4468,7 +4656,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="B22" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4489,7 +4677,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="B23" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4510,7 +4698,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="B24" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4531,7 +4719,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="B25" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4552,7 +4740,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="10" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="B26" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4573,7 +4761,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="B27" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4594,7 +4782,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="10" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B28" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4615,7 +4803,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="10" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>11</v>
@@ -4634,14 +4822,14 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="10" t="s">
-        <v>230</v>
+      <c r="A30" s="51" t="s">
+        <v>276</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4657,7 +4845,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="10" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B31" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4678,7 +4866,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="10" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>11</v>
@@ -4698,7 +4886,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="10" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>11</v>
@@ -4718,7 +4906,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="10" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -4738,7 +4926,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="10" t="s">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="B35" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4759,7 +4947,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="10" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
@@ -4779,7 +4967,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="10" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="B37" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4800,7 +4988,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="10" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="B38" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -4821,7 +5009,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="10" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
@@ -4841,7 +5029,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="10" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
@@ -4861,7 +5049,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="10" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>11</v>
@@ -4881,7 +5069,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="10" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>5</v>
@@ -4901,7 +5089,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="10" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>11</v>
@@ -4921,7 +5109,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="40" t="s">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -4941,10 +5129,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="10" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -4960,10 +5148,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="10" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -4980,16 +5168,16 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="10" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -5004,10 +5192,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="10" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -5023,7 +5211,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="10" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>11</v>
@@ -5044,7 +5232,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="10" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="B50" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5065,7 +5253,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="10" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>11</v>
@@ -5074,19 +5262,19 @@
         <v>5</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="42" t="s">
+      <c r="H51" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -5097,10 +5285,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="10" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -5117,10 +5305,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="10" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -5137,10 +5325,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="10" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -5157,18 +5345,15 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="10" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F55" s="9"/>
@@ -5183,7 +5368,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="10" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>11</v>
@@ -5192,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -5207,7 +5392,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="10" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>11</v>
@@ -5226,7 +5411,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="10" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>11</v>
@@ -5245,7 +5430,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="10" t="s">
-        <v>249</v>
+        <v>305</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>11</v>
@@ -5265,13 +5450,13 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="10" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -5286,7 +5471,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="10" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>11</v>
@@ -5295,7 +5480,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -5309,7 +5494,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="10" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>11</v>
@@ -5318,13 +5503,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H62" s="18"/>
       <c r="I62" s="5"/>
@@ -5336,7 +5521,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="10" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>11</v>
@@ -5345,13 +5530,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H63" s="18"/>
       <c r="I63" s="5"/>
@@ -5363,7 +5548,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="10" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>11</v>
@@ -5384,7 +5569,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="10" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>11</v>
@@ -5393,13 +5578,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H65" s="18"/>
       <c r="I65" s="5"/>
@@ -5411,7 +5596,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="10" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="B66" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5432,7 +5617,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="10" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>11</v>
@@ -5453,7 +5638,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="10" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="B68" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5474,7 +5659,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="10" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="B69" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5495,7 +5680,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="10" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="B70" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5516,7 +5701,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="10" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>11</v>
@@ -5525,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="42"/>
@@ -5539,7 +5724,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="10" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>11</v>
@@ -5548,13 +5733,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H72" s="18"/>
       <c r="I72" s="5"/>
@@ -5566,13 +5751,13 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="10" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -5588,13 +5773,13 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="10" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -5609,7 +5794,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="10" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B75" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5630,10 +5815,10 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="10" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>11</v>
@@ -5642,10 +5827,10 @@
         <v>5</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H76" s="18"/>
       <c r="I76" s="6"/>
@@ -5657,10 +5842,10 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="10" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>11</v>
@@ -5669,10 +5854,10 @@
         <v>5</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H77" s="18"/>
       <c r="I77" s="5"/>
@@ -5684,7 +5869,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="10" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>3</v>
@@ -5703,7 +5888,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="10" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="B79" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5724,7 +5909,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="10" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B80" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5745,7 +5930,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="10" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="B81" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5766,10 +5951,10 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="10" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>11</v>
@@ -5789,10 +5974,10 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="10" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>11</v>
@@ -5801,10 +5986,10 @@
         <v>5</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H83" s="18"/>
       <c r="I83" s="5"/>
@@ -5816,7 +6001,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="10" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B84" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -5837,13 +6022,13 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="10" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -5858,13 +6043,13 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="10" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>11</v>
@@ -5873,7 +6058,7 @@
         <v>5</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H86" s="18"/>
       <c r="I86" s="6"/>
@@ -5882,13 +6067,13 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="10" t="s">
-        <v>279</v>
+        <v>182</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -5903,10 +6088,10 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="10" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>11</v>
@@ -5926,10 +6111,10 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="10" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>11</v>
@@ -5938,10 +6123,10 @@
         <v>5</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H89" s="18"/>
       <c r="I89" s="6"/>
@@ -5953,7 +6138,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="41" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>11</v>
@@ -6008,12 +6193,12 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -6035,7 +6220,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>11</v>
@@ -6047,10 +6232,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
@@ -6061,10 +6246,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>11</v>
@@ -6075,13 +6260,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="18"/>
@@ -6089,7 +6274,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="B6" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6103,10 +6288,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -6117,7 +6302,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -6130,10 +6315,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>4</v>
@@ -6144,10 +6329,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -6156,7 +6341,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B11" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6170,7 +6355,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B12" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6184,7 +6369,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B13" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6198,10 +6383,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>4</v>
@@ -6213,10 +6398,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -6226,10 +6411,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="10" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>4</v>
@@ -6241,16 +6426,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="6"/>
@@ -6258,25 +6443,25 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="34" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>11</v>
@@ -6323,13 +6508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="59.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="35.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -6353,7 +6538,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="43" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -6370,10 +6555,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="44" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>3</v>
@@ -6382,15 +6567,15 @@
         <v>4</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="44" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>4</v>
@@ -6402,10 +6587,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="44" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>3</v>
@@ -6414,13 +6599,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="44" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="B6" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6432,10 +6617,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="44" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -6446,16 +6631,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="44" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>4</v>
@@ -6465,16 +6650,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="44" t="s">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>4</v>
@@ -6484,7 +6669,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="44" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="B10" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6497,16 +6682,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="44" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>4</v>
@@ -6514,16 +6699,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="44" t="s">
-        <v>292</v>
+        <v>192</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>4</v>
@@ -6531,16 +6716,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="44" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>4</v>
@@ -6549,7 +6734,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="44" t="s">
-        <v>296</v>
+        <v>196</v>
       </c>
       <c r="B14" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6562,13 +6747,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="44" t="s">
-        <v>297</v>
+        <v>197</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="18"/>
@@ -6576,13 +6761,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="44" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>4</v>
@@ -6594,10 +6779,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="44" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>3</v>
@@ -6606,17 +6791,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="23"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="44" t="s">
-        <v>303</v>
+        <v>203</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
@@ -6625,13 +6810,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="44" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="B19" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6643,10 +6828,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="44" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>3</v>
@@ -6655,23 +6840,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="6"/>
       <c r="I20" s="23"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="44" t="s">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>4</v>
@@ -6679,7 +6864,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="44" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="B22" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6692,10 +6877,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="44" t="s">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>4</v>
@@ -6705,10 +6890,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="44" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>4</v>
@@ -6718,10 +6903,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="44" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>4</v>
@@ -6730,15 +6915,15 @@
         <v>3</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="44" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>4</v>
@@ -6748,7 +6933,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="44" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>3</v>
@@ -6756,7 +6941,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -6766,7 +6951,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="44" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="B28" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6778,7 +6963,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="44" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>4</v>
@@ -6787,10 +6972,10 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="6"/>
       <c r="H29" s="6"/>
@@ -6799,7 +6984,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="44" t="s">
-        <v>313</v>
+        <v>212</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>4</v>
@@ -6808,10 +6993,10 @@
         <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="23"/>
@@ -6820,7 +7005,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="44" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>3</v>
@@ -6829,10 +7014,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -6841,7 +7026,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="44" t="s">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="B32" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6857,7 +7042,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="44" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>4</v>
@@ -6866,17 +7051,17 @@
         <v>3</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="44" t="s">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>4</v>
@@ -6885,17 +7070,17 @@
         <v>3</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="44" t="s">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>4</v>
@@ -6904,10 +7089,10 @@
         <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
@@ -6917,7 +7102,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="44" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
@@ -6928,20 +7113,20 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="44" t="s">
-        <v>316</v>
+        <v>220</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" s="42"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="44" t="s">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="B38" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -6953,7 +7138,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="44" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
@@ -6964,7 +7149,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="45" t="s">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>11</v>
@@ -6977,7 +7162,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="46" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>11</v>
@@ -7004,13 +7189,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="87.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="130" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7031,7 +7216,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="37" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B2" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -7046,13 +7231,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>4</v>
@@ -7064,7 +7249,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="B4" s="50" t="str">
         <f>LOWER(TRUE)</f>
@@ -7079,13 +7264,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>4</v>
@@ -7097,13 +7282,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>
@@ -7115,19 +7300,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="36"/>
@@ -7135,10 +7320,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
@@ -7151,13 +7336,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="33"/>
